--- a/ETL_Requirement_Netflix.xlsx
+++ b/ETL_Requirement_Netflix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarr\UCI_DataClass\GitHub\Netflix-ETL-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A51BC6-8B30-48F2-9B42-76658F7896B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B433FD8-5115-4388-AC0B-6B507BFF8F91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="countries" sheetId="5" r:id="rId5"/>
     <sheet name="relations" sheetId="6" r:id="rId6"/>
     <sheet name="Data Cleanup" sheetId="7" r:id="rId7"/>
+    <sheet name="DB Schema" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="108">
   <si>
     <t>Connection</t>
   </si>
@@ -207,9 +208,6 @@
     <t>country_id</t>
   </si>
   <si>
-    <t>field has multiple separated names and then split to each row</t>
-  </si>
-  <si>
     <t>Final Table</t>
   </si>
   <si>
@@ -246,12 +244,6 @@
     <t>using IDs of the other tables</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>netflix_titles.csv</t>
   </si>
   <si>
@@ -285,15 +277,9 @@
     <t>relations.csv</t>
   </si>
   <si>
-    <t>DB name</t>
-  </si>
-  <si>
     <t>netflix2_db</t>
   </si>
   <si>
-    <t>DB tables</t>
-  </si>
-  <si>
     <t>Timing Results</t>
   </si>
   <si>
@@ -321,17 +307,71 @@
     <t>ETL csv to countries table</t>
   </si>
   <si>
-    <t>ETL Project</t>
-  </si>
-  <si>
-    <t>Yvonne Tran, Darrious, Matthews, Maria Barrera</t>
+    <t>FROM: 1 source file / table</t>
+  </si>
+  <si>
+    <t>TO: Multiple files / tables</t>
+  </si>
+  <si>
+    <t>EXTRACT</t>
+  </si>
+  <si>
+    <t>TRANSFORM</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>1 data source file (CSV)</t>
+  </si>
+  <si>
+    <t>ETL PROJECT</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>DB NAME</t>
+  </si>
+  <si>
+    <t>DB TABLES</t>
+  </si>
+  <si>
+    <t>Maria Barrera</t>
+  </si>
+  <si>
+    <t>Darrious Matthews</t>
+  </si>
+  <si>
+    <t>Yvonne Tran</t>
+  </si>
+  <si>
+    <t>** see Data Cleanup tab</t>
+  </si>
+  <si>
+    <t>1 DB with 5 tables</t>
+  </si>
+  <si>
+    <t>Why this was chosen:</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>&lt;insert reason(s)&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +389,21 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -473,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,6 +648,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,23 +673,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>475824</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9285</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3530864</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAF8E33-9F03-4968-BD3E-99061D22E8EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85551F35-1280-4C98-9968-69B799E2331A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -646,8 +705,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057275" y="3609975"/>
+          <a:off x="10315575" y="2933700"/>
           <a:ext cx="3409524" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55F7F02-CEBB-41B2-9F05-6EFA2772362C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="561974"/>
+          <a:ext cx="6400800" cy="5743575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,29 +764,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>437338</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161206</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55F7F02-CEBB-41B2-9F05-6EFA2772362C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE92191-ACB2-493E-8C83-3C5D1F81F505}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
@@ -690,8 +794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5857875" y="314325"/>
-          <a:ext cx="6495238" cy="5752381"/>
+          <a:off x="666750" y="533400"/>
+          <a:ext cx="2647950" cy="4867275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,108 +1104,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77848C35-D9B1-4D8F-91F8-B98296AD8ED0}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,10 +1271,10 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:H32"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1293,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1260,7 +1417,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>22</v>
@@ -1315,7 +1472,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1341,7 +1498,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -1350,8 +1507,8 @@
         <v>17</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="17" t="s">
-        <v>55</v>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1490,7 +1647,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1522,7 +1679,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1695,398 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:H32"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>56384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="H27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A30:H32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24148B9-5E6B-4DB9-952A-BEC4C89B0C57}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,11 +2173,8 @@
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1672,7 +2217,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1685,7 +2230,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
       <c r="G15" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1735,7 +2280,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>44</v>
@@ -1744,17 +2289,11 @@
         <v>17</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1783,7 +2322,8 @@
       <c r="E21" s="15"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1797,8 +2337,8 @@
       <c r="E22" s="15"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="8"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1813,7 +2353,8 @@
       <c r="E23" s="15"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1830,7 +2371,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
@@ -1839,11 +2380,17 @@
         <v>17</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="H25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1863,13 +2410,13 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1882,7 +2429,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1920,12 +2467,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24148B9-5E6B-4DB9-952A-BEC4C89B0C57}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCF2806-31FD-4771-BCFC-588DC72B9E8B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +2492,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2013,7 +2560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -2069,7 +2616,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
       <c r="G15" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -2134,7 +2681,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -2143,11 +2690,18 @@
         <v>17</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="H20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -2210,7 +2764,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
@@ -2219,17 +2773,11 @@
         <v>17</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -2249,13 +2797,13 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>64</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2268,7 +2816,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -2306,12 +2854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCF2806-31FD-4771-BCFC-588DC72B9E8B}">
-  <dimension ref="A1:K32"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965601F5-57D7-41D5-BF8D-0DD43A0B81B6}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:H32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2879,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2398,8 +2946,11 @@
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -2452,13 +3003,19 @@
         <v>17</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+        <v>72</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -2520,7 +3077,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -2529,9 +3086,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="16"/>
@@ -2610,12 +3165,8 @@
       <c r="E25" s="15"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -2635,396 +3186,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A30:H32"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965601F5-57D7-41D5-BF8D-0DD43A0B81B6}">
-  <dimension ref="A1:K33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6">
-        <v>56384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="H27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>48</v>
@@ -3042,7 +3204,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="H29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>48</v>
@@ -3055,7 +3217,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -3131,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3197,14 +3359,36 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A15832-12B6-4000-9649-96683186CA03}">
+  <dimension ref="B2:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ETL_Requirement_Netflix.xlsx
+++ b/ETL_Requirement_Netflix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarr\UCI_DataClass\GitHub\Netflix-ETL-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B433FD8-5115-4388-AC0B-6B507BFF8F91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DBC943-39F6-4398-A627-AF01113531F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="110">
   <si>
     <t>Connection</t>
   </si>
@@ -358,13 +358,19 @@
     <t>1 DB with 5 tables</t>
   </si>
   <si>
-    <t>Why this was chosen:</t>
-  </si>
-  <si>
     <t>TEAM</t>
   </si>
   <si>
-    <t>&lt;insert reason(s)&gt;</t>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>SQL Alchemy</t>
+  </si>
+  <si>
+    <t>SQL - Postgres</t>
+  </si>
+  <si>
+    <t>** simplified to relational tables with keys for easier navigation</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,6 +591,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -612,9 +631,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -642,16 +658,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +690,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3530864</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>47385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1123,13 +1132,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
@@ -1186,17 +1195,26 @@
       <c r="B11" t="s">
         <v>74</v>
       </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>76</v>
       </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1220,9 +1238,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>105</v>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E17" s="43" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,9 +1251,6 @@
         <v>68</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1274,7 +1289,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1431,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -1646,36 +1661,36 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -1841,7 +1856,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="16"/>
@@ -1942,7 +1957,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="41"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1958,7 +1973,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="41"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1974,7 +1989,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="41"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -2042,36 +2057,36 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2229,7 +2244,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="20" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="16"/>
@@ -2428,36 +2443,36 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2615,7 +2630,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="20" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="16"/>
@@ -2701,7 +2716,7 @@
       <c r="I20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -2815,36 +2830,36 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3007,7 +3022,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -3216,36 +3231,36 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3259,29 +3274,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1582DC4D-9F3B-4A62-9F1D-6331DF0F90F6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3289,7 +3304,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3297,7 +3312,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3305,7 +3320,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -3313,7 +3328,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" t="s">

--- a/ETL_Requirement_Netflix.xlsx
+++ b/ETL_Requirement_Netflix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarr\UCI_DataClass\GitHub\Netflix-ETL-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petertran/Netflix-ETL-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DBC943-39F6-4398-A627-AF01113531F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ECD059-8614-514E-9EE4-2A897262698C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
+    <workbookView xWindow="3340" yWindow="500" windowWidth="23300" windowHeight="16300" activeTab="5" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -604,6 +604,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -657,9 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,48 +731,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55F7F02-CEBB-41B2-9F05-6EFA2772362C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4210050" y="561974"/>
-          <a:ext cx="6400800" cy="5743575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -796,7 +754,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -805,6 +763,50 @@
         <a:xfrm>
           <a:off x="666750" y="533400"/>
           <a:ext cx="2647950" cy="4867275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077BCAAA-2833-C946-BBD0-0F04058C67BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="533400"/>
+          <a:ext cx="7162800" cy="7117750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,28 +1117,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77848C35-D9B1-4D8F-91F8-B98296AD8ED0}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -1144,17 +1146,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>50</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>76</v>
       </c>
@@ -1216,12 +1218,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -1238,12 +1240,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E17" s="43" t="s">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E17" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -1252,27 +1254,27 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -1292,26 +1294,26 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1327,12 +1329,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1356,10 +1358,10 @@
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1370,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1379,16 +1381,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -1456,7 +1458,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -1477,7 +1479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -1498,7 +1500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>44</v>
@@ -1513,7 +1515,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -1534,7 +1536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
@@ -1555,7 +1557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
         <v>45</v>
@@ -1577,7 +1579,7 @@
       </c>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
         <v>25</v>
@@ -1598,7 +1600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
         <v>46</v>
@@ -1613,7 +1615,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
@@ -1628,7 +1630,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
         <v>28</v>
@@ -1649,50 +1651,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
@@ -1713,27 +1715,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1749,12 +1751,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1770,7 +1772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1778,10 +1780,10 @@
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1790,7 +1792,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1814,7 +1816,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1843,7 +1845,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
@@ -1862,7 +1864,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -1877,7 +1879,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -1892,7 +1894,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -1907,7 +1909,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>44</v>
@@ -1928,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -1943,7 +1945,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
@@ -1959,7 +1961,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
         <v>45</v>
@@ -1975,7 +1977,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
         <v>25</v>
@@ -1991,7 +1993,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
         <v>46</v>
@@ -2006,7 +2008,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
@@ -2021,7 +2023,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
         <v>28</v>
@@ -2036,7 +2038,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
         <v>56</v>
@@ -2048,45 +2050,45 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2104,27 +2106,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2140,12 +2142,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
@@ -2169,10 +2171,10 @@
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -2181,7 +2183,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -2202,7 +2204,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -2231,7 +2233,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -2250,7 +2252,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -2265,7 +2267,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -2280,7 +2282,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -2295,7 +2297,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>44</v>
@@ -2310,7 +2312,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -2325,7 +2327,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
@@ -2340,7 +2342,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
         <v>45</v>
@@ -2356,7 +2358,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
         <v>25</v>
@@ -2371,7 +2373,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
         <v>46</v>
@@ -2386,7 +2388,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
@@ -2407,7 +2409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
         <v>28</v>
@@ -2422,7 +2424,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
         <v>58</v>
@@ -2434,45 +2436,45 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2490,27 +2492,27 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2526,12 +2528,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
@@ -2555,10 +2557,10 @@
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -2567,7 +2569,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -2588,7 +2590,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +2619,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -2636,7 +2638,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -2651,7 +2653,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -2666,7 +2668,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -2681,7 +2683,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>44</v>
@@ -2696,7 +2698,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -2718,7 +2720,7 @@
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
@@ -2733,7 +2735,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
         <v>45</v>
@@ -2749,7 +2751,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
         <v>25</v>
@@ -2764,7 +2766,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
         <v>46</v>
@@ -2779,7 +2781,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
@@ -2794,7 +2796,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
         <v>28</v>
@@ -2809,7 +2811,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
         <v>54</v>
@@ -2821,45 +2823,45 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2873,31 +2875,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965601F5-57D7-41D5-BF8D-0DD43A0B81B6}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2905,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2913,20 +2915,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
@@ -2942,10 +2944,10 @@
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2956,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -2978,7 +2980,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -3007,7 +3009,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -3047,7 +3049,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -3062,7 +3064,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -3077,7 +3079,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>44</v>
@@ -3092,7 +3094,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -3107,7 +3109,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
@@ -3122,7 +3124,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
         <v>45</v>
@@ -3138,7 +3140,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
         <v>25</v>
@@ -3153,7 +3155,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
         <v>46</v>
@@ -3168,7 +3170,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
@@ -3183,7 +3185,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
         <v>28</v>
@@ -3198,7 +3200,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
         <v>56</v>
@@ -3207,7 +3209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="H28" s="6" t="s">
         <v>54</v>
@@ -3216,7 +3218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="H29" s="6" t="s">
         <v>58</v>
@@ -3225,42 +3227,42 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3281,21 +3283,21 @@
       <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="21"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3303,7 +3305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -3341,17 +3343,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -3362,17 +3364,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>60</v>
       </c>
@@ -3390,11 +3392,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A15832-12B6-4000-9649-96683186CA03}">
   <dimension ref="B2:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>88</v>
       </c>

--- a/ETL_Requirement_Netflix.xlsx
+++ b/ETL_Requirement_Netflix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petertran/Netflix-ETL-Challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarr\UCI_DataClass\GitHub\Netflix-ETL-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ECD059-8614-514E-9EE4-2A897262698C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E69660D-A5AA-401E-B0A5-EFF6F591CFC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="500" windowWidth="23300" windowHeight="16300" activeTab="5" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="107">
   <si>
     <t>Connection</t>
   </si>
@@ -61,9 +61,6 @@
     <t>postgres</t>
   </si>
   <si>
-    <t>postges</t>
-  </si>
-  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>many-to-many</t>
   </si>
   <si>
-    <t>due to repition</t>
-  </si>
-  <si>
     <t>explode</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>Data Cleanup</t>
   </si>
   <si>
-    <t>Genre</t>
-  </si>
-  <si>
     <t>netflix_titles</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
     <t>genre</t>
   </si>
   <si>
-    <t>Relations</t>
-  </si>
-  <si>
     <t>field has multiple, comma separated values that will be split as a separate row entry</t>
   </si>
   <si>
@@ -371,6 +359,9 @@
   </si>
   <si>
     <t>** simplified to relational tables with keys for easier navigation</t>
+  </si>
+  <si>
+    <t>due to repetition</t>
   </si>
 </sst>
 </file>
@@ -534,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,6 +598,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1117,164 +1112,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77848C35-D9B1-4D8F-91F8-B98296AD8ED0}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="19"/>
       <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -1294,34 +1289,34 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="6"/>
+    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1329,127 +1324,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="6">
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
@@ -1458,55 +1453,55 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
@@ -1515,98 +1510,98 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15"/>
@@ -1615,13 +1610,13 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
@@ -1630,73 +1625,73 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1715,35 +1710,35 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="6"/>
+    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1751,61 +1746,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="6">
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1816,61 +1811,61 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
       <c r="G15" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
@@ -1879,13 +1874,13 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15"/>
@@ -1894,13 +1889,13 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15"/>
@@ -1909,34 +1904,34 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15"/>
@@ -1945,13 +1940,13 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15"/>
@@ -1961,13 +1956,13 @@
       <c r="I21" s="16"/>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15"/>
@@ -1977,13 +1972,13 @@
       <c r="I22" s="16"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
@@ -1993,13 +1988,13 @@
       <c r="I23" s="16"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15"/>
@@ -2008,13 +2003,13 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
@@ -2023,13 +2018,13 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15"/>
@@ -2038,57 +2033,57 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2106,35 +2101,35 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="6"/>
+    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2142,58 +2137,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="6">
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2204,61 +2199,61 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
       <c r="G15" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
@@ -2267,13 +2262,13 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15"/>
@@ -2282,13 +2277,13 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15"/>
@@ -2297,13 +2292,13 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
@@ -2312,13 +2307,13 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15"/>
@@ -2327,13 +2322,13 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15"/>
@@ -2342,13 +2337,13 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15"/>
@@ -2358,13 +2353,13 @@
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
@@ -2373,13 +2368,13 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15"/>
@@ -2388,34 +2383,34 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15"/>
@@ -2424,57 +2419,57 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2489,38 +2484,38 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="6"/>
+    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2528,58 +2523,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="6">
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2590,61 +2585,61 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
       <c r="G15" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
@@ -2653,13 +2648,13 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15"/>
@@ -2668,13 +2663,13 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15"/>
@@ -2683,13 +2678,13 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
@@ -2698,35 +2693,35 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15"/>
@@ -2735,13 +2730,13 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15"/>
@@ -2751,13 +2746,13 @@
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
@@ -2766,13 +2761,13 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15"/>
@@ -2781,13 +2776,13 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
@@ -2796,13 +2791,13 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15"/>
@@ -2811,57 +2806,57 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2875,39 +2870,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965601F5-57D7-41D5-BF8D-0DD43A0B81B6}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="6"/>
+    <col min="6" max="6" width="6.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2915,12 +2910,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
@@ -2928,48 +2923,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="6">
         <v>56384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2980,67 +2975,67 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
@@ -3049,13 +3044,13 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15"/>
@@ -3064,13 +3059,13 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15"/>
@@ -3079,13 +3074,13 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
@@ -3094,13 +3089,13 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15"/>
@@ -3109,13 +3104,13 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15"/>
@@ -3124,13 +3119,13 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15"/>
@@ -3140,13 +3135,13 @@
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
@@ -3155,13 +3150,13 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15"/>
@@ -3170,13 +3165,13 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
@@ -3185,13 +3180,13 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15"/>
@@ -3200,69 +3195,69 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="H27" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="H28" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="H29" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3274,113 +3269,134 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1582DC4D-9F3B-4A62-9F1D-6331DF0F90F6}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="21"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>60</v>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,18 +3408,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A15832-12B6-4000-9649-96683186CA03}">
   <dimension ref="B2:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/ETL_Requirement_Netflix.xlsx
+++ b/ETL_Requirement_Netflix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petertran/Netflix-ETL-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ECD059-8614-514E-9EE4-2A897262698C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9533A7D-89B5-D440-9891-A8AE34888D53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="500" windowWidth="23300" windowHeight="16300" activeTab="5" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
+    <workbookView xWindow="3340" yWindow="500" windowWidth="23300" windowHeight="16300" activeTab="7" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -774,22 +774,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>31150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>433616</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077BCAAA-2833-C946-BBD0-0F04058C67BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7632ECCF-7868-724B-A4F2-64192D545838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -805,8 +805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="533400"/>
-          <a:ext cx="7162800" cy="7117750"/>
+          <a:off x="4610100" y="609600"/>
+          <a:ext cx="9285516" cy="6019800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2875,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965601F5-57D7-41D5-BF8D-0DD43A0B81B6}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3392,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A15832-12B6-4000-9649-96683186CA03}">
   <dimension ref="B2:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ETL_Requirement_Netflix.xlsx
+++ b/ETL_Requirement_Netflix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petertran/Netflix-ETL-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9533A7D-89B5-D440-9891-A8AE34888D53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FFECC2-4C5E-7141-BABD-91591E24FCC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="500" windowWidth="23300" windowHeight="16300" activeTab="7" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
+    <workbookView xWindow="3340" yWindow="500" windowWidth="23300" windowHeight="16300" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>relations.csv</t>
   </si>
   <si>
-    <t>netflix2_db</t>
-  </si>
-  <si>
     <t>Timing Results</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>** simplified to relational tables with keys for easier navigation</t>
+  </si>
+  <si>
+    <t>netflix3_db</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77848C35-D9B1-4D8F-91F8-B98296AD8ED0}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1135,25 +1135,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1162,35 +1162,35 @@
       </c>
       <c r="B7" s="19"/>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1225,29 +1225,29 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E17" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1310,7 +1310,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -1732,7 +1732,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2060,7 +2060,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -2123,7 +2123,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -2509,7 +2509,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2833,7 +2833,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -2896,7 +2896,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3234,7 +3234,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -3392,7 +3392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A15832-12B6-4000-9649-96683186CA03}">
   <dimension ref="B2:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
@@ -3400,10 +3400,10 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
